--- a/SP_Sklad/TempLate/MatOrderedOutReturn(50).xlsx
+++ b/SP_Sklad/TempLate/MatOrderedOutReturn(50).xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="840" windowWidth="14175" windowHeight="7260"/>
+    <workbookView xWindow="135" yWindow="840" windowWidth="16740" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="MatGroup">Лист1!$A$10:$M$14</definedName>
-    <definedName name="MatOutDet">Лист1!$A$12:$M$13</definedName>
+    <definedName name="MatGroup">Лист1!$A$10:$N$14</definedName>
+    <definedName name="MatOutDet">Лист1!$A$12:$N$13</definedName>
     <definedName name="range1">Лист1!#REF!</definedName>
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$8:$9</definedName>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>sum</t>
   </si>
@@ -50,12 +50,6 @@
     <t>Товар</t>
   </si>
   <si>
-    <t>Видано</t>
-  </si>
-  <si>
-    <t>Всього, к-сть</t>
-  </si>
-  <si>
     <t>Замовлено</t>
   </si>
   <si>
@@ -69,16 +63,29 @@
   </si>
   <si>
     <t>Повернуто</t>
+  </si>
+  <si>
+    <t>Відвантажено</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% виконання замовлення </t>
+  </si>
+  <si>
+    <t>Реалізація</t>
+  </si>
+  <si>
+    <t>% виконання реалізації</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -123,13 +130,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="Times New Roman Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
       <sz val="10"/>
       <name val="Times New Roman Cyr"/>
       <charset val="204"/>
@@ -265,7 +265,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -437,24 +437,6 @@
         <color indexed="55"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="55"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="55"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="55"/>
       </top>
@@ -522,11 +504,79 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="55"/>
+      </left>
+      <right style="thin">
+        <color indexed="55"/>
+      </right>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="55"/>
+      </right>
+      <top style="hair">
+        <color indexed="55"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="55"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="55"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="55"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -547,14 +597,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -565,39 +611,38 @@
     <xf numFmtId="2" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -606,56 +651,80 @@
     <xf numFmtId="2" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1025,12 +1094,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="B1:O17"/>
+  <dimension ref="B1:P17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -1040,33 +1106,34 @@
     <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="7.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="11.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
+    <col min="14" max="15" width="10.140625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="27" customHeight="1">
-      <c r="B1" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
+    <row r="1" spans="2:16" ht="27" customHeight="1">
+      <c r="B1" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
     </row>
-    <row r="2" spans="2:15" ht="6" customHeight="1">
+    <row r="2" spans="2:16" ht="6" customHeight="1">
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -1079,228 +1146,253 @@
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
       <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
     </row>
-    <row r="3" spans="2:15" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B3" s="30" t="s">
+    <row r="3" spans="2:16" s="24" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="31" t="e">
+      <c r="D3" s="26" t="e">
         <f>CONCATENATE("з "&amp;XLRPARAMS_StartDate," по "&amp;XLRPARAMS_EndDate)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
     </row>
-    <row r="4" spans="2:15" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B4" s="35" t="s">
+    <row r="4" spans="2:16" s="24" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B4" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32" t="e">
+        <f>XLRPARAMS_GRP</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+    </row>
+    <row r="5" spans="2:16" s="24" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B5" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="26" t="e">
+        <f>XLRPARAMS_KontragentGroupName</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" s="24" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B6" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="26" t="e">
+        <f>XLRPARAMS_KAID</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E6" s="28"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+    </row>
+    <row r="7" spans="2:16" ht="7.5" customHeight="1"/>
+    <row r="8" spans="2:16" ht="17.25" customHeight="1">
+      <c r="B8" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="42"/>
+      <c r="I8" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="41"/>
+      <c r="K8" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="37" t="e">
-        <f>XLRPARAMS_GRP</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="42" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="5" spans="2:15" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B5" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="31" t="e">
-        <f>XLRPARAMS_WH</f>
-        <v>#NAME?</v>
-      </c>
+    <row r="9" spans="2:16" ht="27" customHeight="1">
+      <c r="B9" s="57"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="46"/>
+      <c r="L9" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
     </row>
-    <row r="6" spans="2:15" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B6" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="31" t="e">
-        <f>XLRPARAMS_KAID</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
+    <row r="10" spans="2:16" ht="9.75" customHeight="1">
+      <c r="B10" s="49"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="51"/>
     </row>
-    <row r="7" spans="2:15" ht="7.5" customHeight="1"/>
-    <row r="8" spans="2:15" ht="17.25" customHeight="1">
-      <c r="B8" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="47"/>
-      <c r="I8" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="56"/>
-      <c r="K8" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="57"/>
-      <c r="M8" s="47" t="s">
-        <v>10</v>
-      </c>
+    <row r="11" spans="2:16" ht="15.75">
+      <c r="B11" s="49" t="e">
+        <f>MatGroup_NAME</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="51"/>
     </row>
-    <row r="9" spans="2:15" ht="21" customHeight="1">
-      <c r="B9" s="48"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="50"/>
+    <row r="12" spans="2:16">
+      <c r="B12" s="52" t="e">
+        <f>MatOutDet_MatName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="33" t="e">
+        <f>MatOutDet_MeasureName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G12" s="21" t="e">
+        <f>MatOutDet_OrderedAmount</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H12" s="23" t="e">
+        <f>MatOutDet_OrderedTotal</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I12" s="21" t="e">
+        <f>MatOutDet_AmountOut</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J12" s="23" t="e">
+        <f>MatOutDet_TotalOut</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K12" s="59" t="e">
+        <f>(I12*100)/G12</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L12" s="21" t="e">
+        <f>MatOutDet_ReturnAmount</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M12" s="23" t="e">
+        <f>MatOutDet_ReturnTotal</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N12" s="36" t="e">
+        <f>I12-L12</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O12" s="60" t="e">
+        <f>(N12*100)/I12</f>
+        <v>#NAME?</v>
+      </c>
     </row>
-    <row r="10" spans="2:15" ht="13.5">
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="28"/>
+    <row r="13" spans="2:16">
+      <c r="B13" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="17"/>
+      <c r="L13" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="O13" s="18"/>
     </row>
-    <row r="11" spans="2:15" ht="15.75">
-      <c r="B11" s="51" t="e">
-        <f>MatGroup_NAME</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="53"/>
-    </row>
-    <row r="12" spans="2:15">
-      <c r="B12" s="42" t="e">
-        <f>MatOutDet_MatName</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="38" t="e">
-        <f>MatOutDet_MeasureName</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G12" s="25" t="e">
-        <f>MatOutDet_OrderedAmount</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H12" s="27" t="e">
-        <f>MatOutDet_OrderedTotal</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I12" s="25" t="e">
-        <f>MatOutDet_AmountOut</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J12" s="27" t="e">
-        <f>MatOutDet_TotalOut</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K12" s="25" t="e">
-        <f>MatOutDet_ReturnAmount</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L12" s="27" t="e">
-        <f>MatOutDet_ReturnTotal</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M12" s="41" t="e">
-        <f>I12-K12</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15">
-      <c r="B13" s="18"/>
-      <c r="C13" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="K13" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M13" s="22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:16">
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1312,9 +1404,10 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
-      <c r="M14" s="10"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:16" ht="13.5" customHeight="1">
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1326,9 +1419,10 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
-      <c r="M15" s="10"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="2:15" ht="12.75" customHeight="1">
+    <row r="16" spans="2:16" ht="12.75" customHeight="1">
       <c r="B16" s="11"/>
       <c r="C16" s="15" t="s">
         <v>2</v>
@@ -1336,36 +1430,37 @@
       <c r="D16" s="15"/>
       <c r="E16" s="12"/>
       <c r="F16" s="13"/>
-      <c r="G16" s="40" t="e">
+      <c r="G16" s="35" t="e">
         <f>SummaryField_OrderedAmount</f>
         <v>#NAME?</v>
       </c>
-      <c r="H16" s="40" t="e">
+      <c r="H16" s="35" t="e">
         <f>SummaryField_OrderedTotal</f>
         <v>#NAME?</v>
       </c>
-      <c r="I16" s="40" t="e">
+      <c r="I16" s="35" t="e">
         <f>SummaryField_AmountOut</f>
         <v>#NAME?</v>
       </c>
-      <c r="J16" s="40" t="e">
+      <c r="J16" s="35" t="e">
         <f>SummaryField_TotalOut</f>
         <v>#NAME?</v>
       </c>
-      <c r="K16" s="40" t="e">
+      <c r="K16" s="35"/>
+      <c r="L16" s="35" t="e">
         <f>SummaryField_ReturnAmount</f>
         <v>#NAME?</v>
       </c>
-      <c r="L16" s="40" t="e">
+      <c r="M16" s="35" t="e">
         <f>SummaryField_ReturnTotal</f>
         <v>#NAME?</v>
       </c>
-      <c r="M16" s="23" t="e">
-        <f>I16-K16</f>
+      <c r="N16" s="19" t="e">
+        <f>I16-L16</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="12.75" customHeight="1">
+    <row r="17" spans="2:14" ht="12.75" customHeight="1">
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1377,24 +1472,29 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="5"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="13">
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="B10:O10"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B8:E9"/>
     <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B11:M11"/>
-    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="B11:O11"/>
+    <mergeCell ref="B1:N1"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="F8:F9"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="K8:K9"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="68" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/SP_Sklad/TempLate/MatOrderedOutReturn(50).xlsx
+++ b/SP_Sklad/TempLate/MatOrderedOutReturn(50).xlsx
@@ -10,8 +10,8 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="MatGroup">Лист1!$A$10:$N$14</definedName>
-    <definedName name="MatOutDet">Лист1!$A$12:$N$13</definedName>
+    <definedName name="MatGroup">Лист1!$A$10:$O$14</definedName>
+    <definedName name="MatOutDet">Лист1!$A$12:$O$13</definedName>
     <definedName name="range1">Лист1!#REF!</definedName>
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$8:$9</definedName>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>sum</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>% виконання реалізації</t>
+  </si>
+  <si>
+    <t>Група товарів</t>
   </si>
 </sst>
 </file>
@@ -265,7 +268,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -420,19 +423,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="hair">
-        <color indexed="23"/>
-      </right>
-      <top style="hair">
-        <color indexed="23"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="55"/>
       </left>
@@ -576,7 +566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -654,77 +644,83 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="11" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1094,7 +1090,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="B1:P17"/>
+  <dimension ref="B1:Q17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1104,36 +1100,38 @@
     <col min="2" max="2" width="5.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" style="1" customWidth="1"/>
-    <col min="10" max="11" width="11.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
-    <col min="14" max="15" width="10.140625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="8.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="11.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" style="1" customWidth="1"/>
+    <col min="15" max="16" width="10.140625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="27" customHeight="1">
-      <c r="B1" s="39" t="s">
+    <row r="1" spans="2:17" ht="27" customHeight="1">
+      <c r="B1" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
-    <row r="2" spans="2:16" ht="6" customHeight="1">
+    <row r="2" spans="2:17" ht="6" customHeight="1">
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -1147,8 +1145,9 @@
       <c r="L2" s="14"/>
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
     </row>
-    <row r="3" spans="2:16" s="24" customFormat="1" ht="15.75" customHeight="1">
+    <row r="3" spans="2:17" s="24" customFormat="1" ht="15.75" customHeight="1">
       <c r="B3" s="25" t="s">
         <v>6</v>
       </c>
@@ -1156,7 +1155,7 @@
         <f>CONCATENATE("з "&amp;XLRPARAMS_StartDate," по "&amp;XLRPARAMS_EndDate)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E3" s="27"/>
+      <c r="E3" s="26"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
@@ -1168,8 +1167,9 @@
       <c r="N3" s="27"/>
       <c r="O3" s="27"/>
       <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
     </row>
-    <row r="4" spans="2:16" s="24" customFormat="1" ht="15.75" customHeight="1">
+    <row r="4" spans="2:17" s="24" customFormat="1" ht="15.75" customHeight="1">
       <c r="B4" s="30" t="s">
         <v>11</v>
       </c>
@@ -1178,7 +1178,7 @@
         <f>XLRPARAMS_GRP</f>
         <v>#NAME?</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="27"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
@@ -1190,8 +1190,9 @@
       <c r="N4" s="27"/>
       <c r="O4" s="27"/>
       <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
     </row>
-    <row r="5" spans="2:16" s="24" customFormat="1" ht="15.75" customHeight="1">
+    <row r="5" spans="2:17" s="24" customFormat="1" ht="15.75" customHeight="1">
       <c r="B5" s="25" t="s">
         <v>10</v>
       </c>
@@ -1199,8 +1200,9 @@
         <f>XLRPARAMS_KontragentGroupName</f>
         <v>#NAME?</v>
       </c>
+      <c r="E5" s="26"/>
     </row>
-    <row r="6" spans="2:16" s="24" customFormat="1" ht="15.75" customHeight="1">
+    <row r="6" spans="2:17" s="24" customFormat="1" ht="15.75" customHeight="1">
       <c r="B6" s="25" t="s">
         <v>7</v>
       </c>
@@ -1209,195 +1211,207 @@
         <f>XLRPARAMS_KAID</f>
         <v>#NAME?</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="29"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="28"/>
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
     </row>
-    <row r="7" spans="2:16" ht="7.5" customHeight="1"/>
-    <row r="8" spans="2:16" ht="17.25" customHeight="1">
-      <c r="B8" s="55" t="s">
+    <row r="7" spans="2:17" ht="7.5" customHeight="1"/>
+    <row r="8" spans="2:17" ht="17.25" customHeight="1">
+      <c r="B8" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42" t="s">
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="55" t="s">
+      <c r="H8" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="42"/>
-      <c r="I8" s="40" t="s">
+      <c r="I8" s="45"/>
+      <c r="J8" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="41"/>
-      <c r="K8" s="45" t="s">
+      <c r="K8" s="44"/>
+      <c r="L8" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="40" t="s">
+      <c r="M8" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="44"/>
-      <c r="N8" s="42" t="s">
+      <c r="N8" s="47"/>
+      <c r="O8" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="42" t="s">
+      <c r="P8" s="45" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="27" customHeight="1">
-      <c r="B9" s="57"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="20" t="s">
+    <row r="9" spans="2:17" ht="27" customHeight="1">
+      <c r="B9" s="52"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="I9" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="J9" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="37" t="s">
+      <c r="K9" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="46"/>
-      <c r="L9" s="20" t="s">
+      <c r="L9" s="49"/>
+      <c r="M9" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="20" t="s">
+      <c r="N9" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
     </row>
-    <row r="10" spans="2:16" ht="9.75" customHeight="1">
-      <c r="B10" s="49"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="51"/>
+    <row r="10" spans="2:17" ht="9.75" customHeight="1">
+      <c r="B10" s="58"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="60"/>
     </row>
-    <row r="11" spans="2:16" ht="15.75">
-      <c r="B11" s="49" t="e">
+    <row r="11" spans="2:17" ht="15.75">
+      <c r="B11" s="58" t="e">
         <f>MatGroup_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="51"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="60"/>
     </row>
-    <row r="12" spans="2:16">
-      <c r="B12" s="52" t="e">
+    <row r="12" spans="2:17">
+      <c r="B12" s="61" t="e">
         <f>MatOutDet_MatName</f>
         <v>#NAME?</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="33" t="e">
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="41" t="e">
+        <f>MatOutDet_MatGrpName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G12" s="33" t="e">
         <f>MatOutDet_MeasureName</f>
         <v>#NAME?</v>
       </c>
-      <c r="G12" s="21" t="e">
+      <c r="H12" s="21" t="e">
         <f>MatOutDet_OrderedAmount</f>
         <v>#NAME?</v>
       </c>
-      <c r="H12" s="23" t="e">
+      <c r="I12" s="23" t="e">
         <f>MatOutDet_OrderedTotal</f>
         <v>#NAME?</v>
       </c>
-      <c r="I12" s="21" t="e">
+      <c r="J12" s="21" t="e">
         <f>MatOutDet_AmountOut</f>
         <v>#NAME?</v>
       </c>
-      <c r="J12" s="23" t="e">
+      <c r="K12" s="23" t="e">
         <f>MatOutDet_TotalOut</f>
         <v>#NAME?</v>
       </c>
-      <c r="K12" s="59" t="e">
-        <f>(I12*100)/G12</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L12" s="21" t="e">
+      <c r="L12" s="39" t="e">
+        <f>(J12*100)/H12</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M12" s="21" t="e">
         <f>MatOutDet_ReturnAmount</f>
         <v>#NAME?</v>
       </c>
-      <c r="M12" s="23" t="e">
+      <c r="N12" s="23" t="e">
         <f>MatOutDet_ReturnTotal</f>
         <v>#NAME?</v>
       </c>
-      <c r="N12" s="36" t="e">
-        <f>I12-L12</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O12" s="60" t="e">
-        <f>(N12*100)/I12</f>
+      <c r="O12" s="36" t="e">
+        <f>J12-M12</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="P12" s="40" t="e">
+        <f>(O12*100)/J12</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="13" spans="2:16">
-      <c r="B13" s="47" t="s">
+    <row r="13" spans="2:17">
+      <c r="B13" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="34" t="s">
-        <v>0</v>
-      </c>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="16"/>
       <c r="H13" s="34" t="s">
         <v>0</v>
       </c>
       <c r="I13" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="17" t="s">
+      <c r="J13" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="K13" s="17"/>
-      <c r="L13" s="34" t="s">
+      <c r="K13" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="M13" s="17" t="s">
+      <c r="L13" s="17"/>
+      <c r="M13" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="N13" s="38" t="s">
+      <c r="N13" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="O13" s="18"/>
+      <c r="O13" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="P13" s="18"/>
     </row>
-    <row r="14" spans="2:16">
+    <row r="14" spans="2:17">
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -1405,14 +1419,15 @@
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
-      <c r="N14" s="10"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="10"/>
     </row>
-    <row r="15" spans="2:16" ht="13.5" customHeight="1">
+    <row r="15" spans="2:17" ht="13.5" customHeight="1">
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="8"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
@@ -1420,52 +1435,54 @@
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
-      <c r="N15" s="10"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="10"/>
     </row>
-    <row r="16" spans="2:16" ht="12.75" customHeight="1">
+    <row r="16" spans="2:17" ht="12.75" customHeight="1">
       <c r="B16" s="11"/>
       <c r="C16" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="15"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="35" t="e">
+      <c r="E16" s="15"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="35" t="e">
         <f>SummaryField_OrderedAmount</f>
         <v>#NAME?</v>
       </c>
-      <c r="H16" s="35" t="e">
+      <c r="I16" s="35" t="e">
         <f>SummaryField_OrderedTotal</f>
         <v>#NAME?</v>
       </c>
-      <c r="I16" s="35" t="e">
+      <c r="J16" s="35" t="e">
         <f>SummaryField_AmountOut</f>
         <v>#NAME?</v>
       </c>
-      <c r="J16" s="35" t="e">
+      <c r="K16" s="35" t="e">
         <f>SummaryField_TotalOut</f>
         <v>#NAME?</v>
       </c>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35" t="e">
+      <c r="L16" s="35"/>
+      <c r="M16" s="35" t="e">
         <f>SummaryField_ReturnAmount</f>
         <v>#NAME?</v>
       </c>
-      <c r="M16" s="35" t="e">
+      <c r="N16" s="35" t="e">
         <f>SummaryField_ReturnTotal</f>
         <v>#NAME?</v>
       </c>
-      <c r="N16" s="19" t="e">
-        <f>I16-L16</f>
+      <c r="O16" s="19" t="e">
+        <f>J16-M16</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="12.75" customHeight="1">
+    <row r="17" spans="2:15" ht="12.75" customHeight="1">
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="4"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="2"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -1473,28 +1490,30 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
-      <c r="N17" s="5"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B13:E13"/>
+  <mergeCells count="14">
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="B10:P10"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B11:P11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B1:O1"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="M8:N8"/>
     <mergeCell ref="O8:O9"/>
-    <mergeCell ref="B10:O10"/>
-    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="L8:L9"/>
     <mergeCell ref="B8:E9"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B11:O11"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="I8:J8"/>
     <mergeCell ref="F8:F9"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="K8:K9"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="68" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="62" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/SP_Sklad/TempLate/MatOrderedOutReturn(50).xlsx
+++ b/SP_Sklad/TempLate/MatOrderedOutReturn(50).xlsx
@@ -7,21 +7,24 @@
     <workbookView xWindow="135" yWindow="840" windowWidth="16740" windowHeight="7860"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="По товарах" sheetId="1" r:id="rId1"/>
+    <sheet name="По группах товарів" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="MatGroup">Лист1!$A$10:$O$14</definedName>
-    <definedName name="MatOutDet">Лист1!$A$12:$O$13</definedName>
-    <definedName name="range1">Лист1!#REF!</definedName>
-    <definedName name="sectionPrice">Лист1!#REF!</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$8:$9</definedName>
+    <definedName name="KagentsGrp">'По группах товарів'!$A$10:$N$14</definedName>
+    <definedName name="MatGroup">'По товарах'!$A$10:$O$14</definedName>
+    <definedName name="MatGrp2">'По группах товарів'!$A$12:$N$13</definedName>
+    <definedName name="MatOutDet">'По товарах'!$A$12:$O$13</definedName>
+    <definedName name="range1">'По товарах'!#REF!</definedName>
+    <definedName name="sectionPrice">'По товарах'!#REF!</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'По товарах'!$8:$9</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="19">
   <si>
     <t>sum</t>
   </si>
@@ -566,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -659,6 +662,42 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -668,12 +707,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -683,9 +716,6 @@
     <xf numFmtId="44" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -700,27 +730,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1092,7 +1101,9 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="B1:Q17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:O13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -1114,22 +1125,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="27" customHeight="1">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
     </row>
     <row r="2" spans="2:17" ht="6" customHeight="1">
       <c r="B2" s="14"/>
@@ -1220,47 +1231,47 @@
     </row>
     <row r="7" spans="2:17" ht="7.5" customHeight="1"/>
     <row r="8" spans="2:17" ht="17.25" customHeight="1">
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="54" t="s">
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="45" t="s">
+      <c r="G8" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="50" t="s">
+      <c r="H8" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="45"/>
-      <c r="J8" s="43" t="s">
+      <c r="I8" s="46"/>
+      <c r="J8" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="44"/>
-      <c r="L8" s="48" t="s">
+      <c r="K8" s="56"/>
+      <c r="L8" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="43" t="s">
+      <c r="M8" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="N8" s="47"/>
-      <c r="O8" s="45" t="s">
+      <c r="N8" s="57"/>
+      <c r="O8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="45" t="s">
+      <c r="P8" s="46" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:17" ht="27" customHeight="1">
-      <c r="B9" s="52"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="46"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="47"/>
       <c r="H9" s="20" t="s">
         <v>5</v>
       </c>
@@ -1273,61 +1284,61 @@
       <c r="K9" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="49"/>
+      <c r="L9" s="59"/>
       <c r="M9" s="20" t="s">
         <v>5</v>
       </c>
       <c r="N9" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="O9" s="46"/>
-      <c r="P9" s="46"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
     </row>
     <row r="10" spans="2:17" ht="9.75" customHeight="1">
-      <c r="B10" s="58"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="60"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="50"/>
     </row>
     <row r="11" spans="2:17" ht="15.75">
-      <c r="B11" s="58" t="e">
+      <c r="B11" s="48" t="e">
         <f>MatGroup_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="60"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="50"/>
     </row>
     <row r="12" spans="2:17">
-      <c r="B12" s="61" t="e">
+      <c r="B12" s="52" t="e">
         <f>MatOutDet_MatName</f>
         <v>#NAME?</v>
       </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
       <c r="F12" s="41" t="e">
         <f>MatOutDet_MatGrpName</f>
         <v>#NAME?</v>
@@ -1374,13 +1385,13 @@
       </c>
     </row>
     <row r="13" spans="2:17">
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
       <c r="G13" s="16"/>
       <c r="H13" s="34" t="s">
         <v>0</v>
@@ -1495,12 +1506,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="B10:P10"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B11:P11"/>
-    <mergeCell ref="B12:E12"/>
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="G8:G9"/>
@@ -1509,6 +1514,12 @@
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="B8:E9"/>
     <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="B10:P10"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B11:P11"/>
+    <mergeCell ref="B12:E12"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1516,4 +1527,351 @@
   <pageSetup paperSize="9" scale="62" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:O16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="1" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="11.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" style="1" customWidth="1"/>
+    <col min="13" max="14" width="10.140625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="27" customHeight="1">
+      <c r="B1" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+    </row>
+    <row r="2" spans="2:15" ht="6" customHeight="1">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+    </row>
+    <row r="3" spans="2:15" s="24" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B3" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="26" t="e">
+        <f>CONCATENATE("з "&amp;XLRPARAMS_StartDate," по "&amp;XLRPARAMS_EndDate)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+    </row>
+    <row r="4" spans="2:15" s="24" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B4" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32" t="e">
+        <f>XLRPARAMS_GRP</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E4" s="32"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+    </row>
+    <row r="5" spans="2:15" s="24" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B5" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="26" t="e">
+        <f>XLRPARAMS_KontragentGroupName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E5" s="26"/>
+    </row>
+    <row r="6" spans="2:15" s="24" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B6" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="26" t="e">
+        <f>XLRPARAMS_KAID</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+    </row>
+    <row r="7" spans="2:15" ht="7.5" customHeight="1"/>
+    <row r="8" spans="2:15" ht="17.25" customHeight="1">
+      <c r="B8" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="46"/>
+      <c r="H8" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="56"/>
+      <c r="J8" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="57"/>
+      <c r="M8" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="27" customHeight="1">
+      <c r="B9" s="61"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="59"/>
+      <c r="K9" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+    </row>
+    <row r="10" spans="2:15" ht="9.75" customHeight="1">
+      <c r="B10" s="48"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="50"/>
+    </row>
+    <row r="11" spans="2:15" ht="15.75">
+      <c r="B11" s="48" t="e">
+        <f>KagentsGrp_Name</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="50"/>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" s="52" t="e">
+        <f>MatGrp2_MatGrpName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="21" t="e">
+        <f>MatGrp2_OrderedAmount</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G12" s="23" t="e">
+        <f>MatGrp2_OrderedTotal</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H12" s="21" t="e">
+        <f>MatGrp2_AmountOut</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I12" s="23" t="e">
+        <f>MatGrp2_TotalOut</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J12" s="39" t="e">
+        <f>(H12*100)/F12</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K12" s="21" t="e">
+        <f>MatGrp2_ReturnAmount</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L12" s="23" t="e">
+        <f>MatGrp2_ReturnTotal</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M12" s="36" t="e">
+        <f>H12-K12</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N12" s="40" t="e">
+        <f>(M12*100)/H12</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="17"/>
+      <c r="K13" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" s="18"/>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="10"/>
+    </row>
+    <row r="15" spans="2:15" ht="13.5" customHeight="1">
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="10"/>
+    </row>
+    <row r="16" spans="2:15" ht="12.75" customHeight="1">
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="B10:N10"/>
+    <mergeCell ref="B11:N11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="B8:E9"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:M9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SP_Sklad/TempLate/MatOrderedOutReturn(50).xlsx
+++ b/SP_Sklad/TempLate/MatOrderedOutReturn(50).xlsx
@@ -668,18 +668,54 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -689,47 +725,11 @@
     <xf numFmtId="14" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1101,9 +1101,7 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="B1:Q17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:O13"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -1125,22 +1123,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="27" customHeight="1">
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
     </row>
     <row r="2" spans="2:17" ht="6" customHeight="1">
       <c r="B2" s="14"/>
@@ -1231,47 +1229,47 @@
     </row>
     <row r="7" spans="2:17" ht="7.5" customHeight="1"/>
     <row r="8" spans="2:17" ht="17.25" customHeight="1">
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="63" t="s">
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="46" t="s">
+      <c r="G8" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="51" t="s">
+      <c r="H8" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="46"/>
-      <c r="J8" s="55" t="s">
+      <c r="I8" s="47"/>
+      <c r="J8" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="56"/>
-      <c r="L8" s="58" t="s">
+      <c r="K8" s="46"/>
+      <c r="L8" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="55" t="s">
+      <c r="M8" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="N8" s="57"/>
-      <c r="O8" s="46" t="s">
+      <c r="N8" s="49"/>
+      <c r="O8" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="46" t="s">
+      <c r="P8" s="47" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:17" ht="27" customHeight="1">
-      <c r="B9" s="61"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="47"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="48"/>
       <c r="H9" s="20" t="s">
         <v>5</v>
       </c>
@@ -1284,61 +1282,61 @@
       <c r="K9" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="59"/>
+      <c r="L9" s="51"/>
       <c r="M9" s="20" t="s">
         <v>5</v>
       </c>
       <c r="N9" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
     </row>
     <row r="10" spans="2:17" ht="9.75" customHeight="1">
-      <c r="B10" s="48"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="50"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="62"/>
     </row>
     <row r="11" spans="2:17" ht="15.75">
-      <c r="B11" s="48" t="e">
+      <c r="B11" s="60" t="e">
         <f>MatGroup_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="50"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="62"/>
     </row>
     <row r="12" spans="2:17">
-      <c r="B12" s="52" t="e">
+      <c r="B12" s="63" t="e">
         <f>MatOutDet_MatName</f>
         <v>#NAME?</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
       <c r="F12" s="41" t="e">
         <f>MatOutDet_MatGrpName</f>
         <v>#NAME?</v>
@@ -1385,13 +1383,13 @@
       </c>
     </row>
     <row r="13" spans="2:17">
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
       <c r="G13" s="16"/>
       <c r="H13" s="34" t="s">
         <v>0</v>
@@ -1506,6 +1504,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="B10:P10"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B11:P11"/>
+    <mergeCell ref="B12:E12"/>
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="G8:G9"/>
@@ -1514,12 +1518,6 @@
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="B8:E9"/>
     <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="B10:P10"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B11:P11"/>
-    <mergeCell ref="B12:E12"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1534,7 +1532,7 @@
   <dimension ref="B1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:N14"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1555,20 +1553,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="27" customHeight="1">
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
     </row>
     <row r="2" spans="2:15" ht="6" customHeight="1">
       <c r="B2" s="14"/>
@@ -1651,39 +1649,39 @@
     </row>
     <row r="7" spans="2:15" ht="7.5" customHeight="1"/>
     <row r="8" spans="2:15" ht="17.25" customHeight="1">
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="51" t="s">
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="46"/>
-      <c r="H8" s="55" t="s">
+      <c r="G8" s="47"/>
+      <c r="H8" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="56"/>
-      <c r="J8" s="58" t="s">
+      <c r="I8" s="46"/>
+      <c r="J8" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="55" t="s">
+      <c r="K8" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="57"/>
-      <c r="M8" s="46" t="s">
+      <c r="L8" s="49"/>
+      <c r="M8" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="46" t="s">
+      <c r="N8" s="47" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="27" customHeight="1">
-      <c r="B9" s="61"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
       <c r="F9" s="20" t="s">
         <v>5</v>
       </c>
@@ -1696,57 +1694,57 @@
       <c r="I9" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="59"/>
+      <c r="J9" s="51"/>
       <c r="K9" s="20" t="s">
         <v>5</v>
       </c>
       <c r="L9" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
     </row>
     <row r="10" spans="2:15" ht="9.75" customHeight="1">
-      <c r="B10" s="48"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="50"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="62"/>
     </row>
     <row r="11" spans="2:15" ht="15.75">
-      <c r="B11" s="48" t="e">
+      <c r="B11" s="60" t="e">
         <f>KagentsGrp_Name</f>
         <v>#NAME?</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="50"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="62"/>
     </row>
     <row r="12" spans="2:15">
-      <c r="B12" s="52" t="e">
+      <c r="B12" s="63" t="e">
         <f>MatGrp2_MatGrpName</f>
         <v>#NAME?</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
       <c r="F12" s="21" t="e">
         <f>MatGrp2_OrderedAmount</f>
         <v>#NAME?</v>
@@ -1785,12 +1783,12 @@
       </c>
     </row>
     <row r="13" spans="2:15">
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
       <c r="F13" s="34" t="s">
         <v>0</v>
       </c>
@@ -1859,11 +1857,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="B10:N10"/>
-    <mergeCell ref="B11:N11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="B8:E9"/>
     <mergeCell ref="F8:G8"/>
@@ -1871,6 +1864,11 @@
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="B10:N10"/>
+    <mergeCell ref="B11:N11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
